--- a/PPT/duration.xlsx
+++ b/PPT/duration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Documents/peter/wanli/banking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Documents/peter/wanli/banking/PPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -249,15 +249,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="i/m" dataDxfId="7"/>
-    <tableColumn id="2" name="ci" dataDxfId="6"/>
-    <tableColumn id="3" name="discount" dataDxfId="5"/>
-    <tableColumn id="4" name="pv" dataDxfId="4"/>
-    <tableColumn id="5" name="weight" dataDxfId="3"/>
-    <tableColumn id="6" name="duration" dataDxfId="2"/>
+    <tableColumn id="1" name="i/m" dataDxfId="5"/>
+    <tableColumn id="2" name="ci" dataDxfId="4"/>
+    <tableColumn id="3" name="discount" dataDxfId="3"/>
+    <tableColumn id="4" name="pv" dataDxfId="2"/>
+    <tableColumn id="5" name="weight" dataDxfId="1"/>
+    <tableColumn id="6" name="duration" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -601,7 +601,7 @@
         <v>3.23594674556213</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E8" si="1">D3/$D$8</f>
+        <f t="shared" ref="E3:E7" si="1">D3/$D$8</f>
         <v>3.3230460566122957E-2</v>
       </c>
       <c r="F3" s="1">

--- a/PPT/duration.xlsx
+++ b/PPT/duration.xlsx
@@ -29,13 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>discount</t>
-  </si>
-  <si>
     <t>pv</t>
-  </si>
-  <si>
-    <t>weight</t>
   </si>
   <si>
     <t>duration</t>
@@ -45,6 +39,12 @@
   </si>
   <si>
     <t>ci</t>
+  </si>
+  <si>
+    <t>每期的权重</t>
+  </si>
+  <si>
+    <t>每期的折现率</t>
   </si>
 </sst>
 </file>
@@ -254,9 +254,9 @@
   <tableColumns count="6">
     <tableColumn id="1" name="i/m" dataDxfId="5"/>
     <tableColumn id="2" name="ci" dataDxfId="4"/>
-    <tableColumn id="3" name="discount" dataDxfId="3"/>
+    <tableColumn id="3" name="每期的折现率" dataDxfId="3"/>
     <tableColumn id="4" name="pv" dataDxfId="2"/>
-    <tableColumn id="5" name="weight" dataDxfId="1"/>
+    <tableColumn id="5" name="每期的权重" dataDxfId="1"/>
     <tableColumn id="6" name="duration" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -529,37 +529,37 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.4">
@@ -567,22 +567,22 @@
         <v>0.5</v>
       </c>
       <c r="B2" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>1.04</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="D2" s="1">
         <f>B2/C2</f>
-        <v>3.3653846153846154</v>
+        <v>3.8277511961722492</v>
       </c>
       <c r="E2" s="1">
         <f>D2/$D$8</f>
-        <v>3.4559678988767877E-2</v>
+        <v>3.9290796553558757E-2</v>
       </c>
       <c r="F2" s="1">
         <f>A2*E2</f>
-        <v>1.7279839494383938E-2</v>
+        <v>1.9645398276779379E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.4">
@@ -590,23 +590,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <f>C2*1.04</f>
-        <v>1.0816000000000001</v>
+        <f>C2*1.045</f>
+        <v>1.0920249999999998</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D7" si="0">B3/C3</f>
-        <v>3.23594674556213</v>
+        <v>3.6629198049495209</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="1">D3/$D$8</f>
-        <v>3.3230460566122957E-2</v>
+        <v>3.7598848376611253E-2</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F7" si="2">A3*E3</f>
-        <v>3.3230460566122957E-2</v>
+        <v>3.7598848376611253E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.4">
@@ -614,23 +614,23 @@
         <v>1.5</v>
       </c>
       <c r="B4" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <f>C3*1.04</f>
-        <v>1.1248640000000001</v>
+        <f>C3*1.045</f>
+        <v>1.1411661249999998</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>3.111487255348202</v>
+        <v>3.5051864162196371</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>3.1952365928964381E-2</v>
+        <v>3.5979759212068183E-2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>4.7928548893446568E-2</v>
+        <v>5.3969638818102274E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.4">
@@ -638,23 +638,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C7" si="3">C4*1.04</f>
-        <v>1.1698585600000002</v>
+        <f>C4*1.045</f>
+        <v>1.1925186006249997</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>2.9918146686040399</v>
+        <v>3.3542453743728591</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>3.0723428777850361E-2</v>
+        <v>3.4430391590495879E-2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>6.1446857555700722E-2</v>
+        <v>6.8860783180991758E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.4">
@@ -662,23 +662,23 @@
         <v>2.5</v>
       </c>
       <c r="B6" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2166529024000003</v>
+        <f>C5*1.045</f>
+        <v>1.2461819376531247</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>2.8767448736577306</v>
+        <v>3.209804186002736</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>2.9541758440240734E-2</v>
+        <v>3.2947743148799884E-2</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>7.3854396100601835E-2</v>
+        <v>8.2369357871999713E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.4">
@@ -686,23 +686,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>103.5</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2653190184960004</v>
+        <f>C6*1.045</f>
+        <v>1.3022601248475152</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>81.797553413070077</v>
+        <v>79.861156780929321</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>0.83999230729805374</v>
+        <v>0.819752461118466</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>2.5199769218941612</v>
+        <v>2.4592573833553981</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.4">
@@ -711,12 +711,12 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f>SUM(D2:D7)</f>
-        <v>97.378931571626794</v>
+        <v>97.421063758646326</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2">
         <f>SUM(F2:F7)</f>
-        <v>2.7537170245044171</v>
+        <v>2.7217014098798824</v>
       </c>
     </row>
   </sheetData>
